--- a/Tencent/Sysbench_Tencent_PG15_8C32G.xlsx
+++ b/Tencent/Sysbench_Tencent_PG15_8C32G.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/demai/work/sysbenchCloudDB/Tencent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452DFE2E-5AA8-FC4B-9070-7ECCEC9391CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175A272A-71A1-A047-AA61-B21DF7CC5114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19340" yWindow="500" windowWidth="28240" windowHeight="19400" xr2:uid="{1C006222-4FFB-AD41-A2F8-DEE8063218B2}"/>
+    <workbookView xWindow="20480" yWindow="500" windowWidth="17920" windowHeight="19400" xr2:uid="{1C006222-4FFB-AD41-A2F8-DEE8063218B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2925,7 +2925,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection sqref="A1:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
